--- a/5_extra/fullstack_web_curs/fullstack-middle.xlsx
+++ b/5_extra/fullstack_web_curs/fullstack-middle.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\github_projects\awesome-python-main\5_extra\fullstack_web_curs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\awesome-python\5_extra\fullstack_web_curs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0B14C0-29B8-4E5F-96F6-7F7A71DF9816}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F82C82E-758B-4C4A-AC5A-1655633CEC1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -720,7 +720,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="75.33203125" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
